--- a/biology/Botanique/Sagittaire_cunéiforme/Sagittaire_cunéiforme.xlsx
+++ b/biology/Botanique/Sagittaire_cunéiforme/Sagittaire_cunéiforme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sagittaire_cun%C3%A9iforme</t>
+          <t>Sagittaire_cunéiforme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sagittaria cuneata
 Sagittaria cuneata est une espèce de plantes à fleurs de la famille des plantains aquatiques connue sous le nom commun de Pointe de flèche arumleaf ou de Pomme de terre de canard[réf. nécessaire]. Comme certaines autres espèces de Sagittaria , on peut l'appeler Wapato[réf. nécessaire]. Il est originaire d'une grande partie de l'Amérique du Nord, y compris la majeure partie du Canada (chaque province et territoire à l'exception du Nunavut) ainsi que l'ouest et le Nord-Est des États-Unis (Nouvelle-Angleterre, Grands Lacs, Grandes Plaines, Rocheuses, Grand Bassin et États de la côte du Pacifique ; y compris l'Alaska mais pas Hawaï). 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sagittaire_cun%C3%A9iforme</t>
+          <t>Sagittaire_cunéiforme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentaire
-Voir sagittaire à larges feuilles.
-Ethnobotanique amérindienne
-Les Cheyennes donnent des feuilles séchées aux chevaux pour les troubles urinaires et pour les maux de bouche. Les Klamath utilisent les porte-greffes comme nourriture. Les Menominee enchaînent ensemble les pommes de terre séchées, bouillies et tranchées pour une utilisation hivernale. Les Ojibwés mangent les bulbes pour l'indigestion, et aussi comme aliment, mangés bouillis frais, séchés ou confits avec du sucre d'érable. Le rat musqué et le castor les stockent dans de grandes caches, qu'ils ont appris à reconnaître et à s'approprier. Les Paiute du Nord utilisent les racines pour se nourrir. Les indigènes du Montana consomment les tubercules crus et bouillis. 
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir sagittaire à larges feuilles.
 </t>
         </is>
       </c>
@@ -529,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sagittaire_cun%C3%A9iforme</t>
+          <t>Sagittaire_cunéiforme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +559,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ethnobotanique amérindienne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cheyennes donnent des feuilles séchées aux chevaux pour les troubles urinaires et pour les maux de bouche. Les Klamath utilisent les porte-greffes comme nourriture. Les Menominee enchaînent ensemble les pommes de terre séchées, bouillies et tranchées pour une utilisation hivernale. Les Ojibwés mangent les bulbes pour l'indigestion, et aussi comme aliment, mangés bouillis frais, séchés ou confits avec du sucre d'érable. Le rat musqué et le castor les stockent dans de grandes caches, qu'ils ont appris à reconnaître et à s'approprier. Les Paiute du Nord utilisent les racines pour se nourrir. Les indigènes du Montana consomment les tubercules crus et bouillis. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sagittaire_cunéiforme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sagittaire_cun%C3%A9iforme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Statut de conservation aux États-Unis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est répertorié comme en voie de disparition dans le Connecticut et le New Jersey. Il est répertorié comme menacé dans le Massachusetts, le New Hampshire et l'Ohio. 
 </t>
